--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_SHO_SHO-SA.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_SHO_SHO-SA.xlsx
@@ -18,30 +18,30 @@
     <sheet name="Input_PSI_Runup" sheetId="263" r:id="rId9"/>
     <sheet name="Input_Runup_LineSpeedft_min" sheetId="274" r:id="rId10"/>
     <sheet name="Input_Runup_LineSpeedm_min" sheetId="273" r:id="rId11"/>
-    <sheet name="Output_BAR_electronicadjust" r:id="rId23" sheetId="283"/>
-    <sheet name="Output_BAR_electronicadjust_Ntv" r:id="rId24" sheetId="284"/>
-    <sheet name="Output_PSI_electronicadjust" r:id="rId25" sheetId="285"/>
-    <sheet name="Output_PSI_electronicadjust_Ntv" r:id="rId26" sheetId="286"/>
-    <sheet name="Output_KPA_Runup" r:id="rId27" sheetId="287"/>
-    <sheet name="Output_BAR_Runup" r:id="rId28" sheetId="288"/>
-    <sheet name="Output_PSI_Runup" r:id="rId29" sheetId="289"/>
-    <sheet name="Output_Runup_Lnspeed_ftmin" r:id="rId30" sheetId="290"/>
-    <sheet name="Output_Runup_Lnspeed_mmin" r:id="rId31" sheetId="291"/>
-    <sheet name="Output_KPA_electronicadjust" r:id="rId38" sheetId="298"/>
-    <sheet name="Output_KPA_electronicadjust_Ntv" r:id="rId39" sheetId="299"/>
-    <sheet name="Output_KPA_Manualadjust" r:id="rId32" sheetId="300"/>
-    <sheet name="Output_KPA_Mnladjst_ntv" r:id="rId33" sheetId="301"/>
-    <sheet name="Output_BAR_Manualadjust" r:id="rId34" sheetId="302"/>
-    <sheet name="Output_BAR_Mnladjst_ntv" r:id="rId35" sheetId="303"/>
-    <sheet name="Output_PSI_Manualadjust" r:id="rId36" sheetId="304"/>
-    <sheet name="Output_PSI_Mnladjst_ntv" r:id="rId37" sheetId="305"/>
+    <sheet name="Output_KPA_Manualadjust" r:id="rId32" sheetId="323"/>
+    <sheet name="Output_KPA_Mnladjst_ntv" r:id="rId33" sheetId="324"/>
+    <sheet name="Output_BAR_Manualadjust" r:id="rId34" sheetId="325"/>
+    <sheet name="Output_BAR_Mnladjst_ntv" r:id="rId35" sheetId="326"/>
+    <sheet name="Output_PSI_Manualadjust" r:id="rId36" sheetId="327"/>
+    <sheet name="Output_PSI_Mnladjst_ntv" r:id="rId37" sheetId="328"/>
+    <sheet name="Output_KPA_electronicadjust" r:id="rId38" sheetId="329"/>
+    <sheet name="Output_KPA_electronicadjust_Ntv" r:id="rId39" sheetId="330"/>
+    <sheet name="Output_BAR_electronicadjust" r:id="rId40" sheetId="331"/>
+    <sheet name="Output_BAR_electronicadjust_Ntv" r:id="rId41" sheetId="332"/>
+    <sheet name="Output_PSI_electronicadjust" r:id="rId42" sheetId="333"/>
+    <sheet name="Output_PSI_electronicadjust_Ntv" r:id="rId43" sheetId="334"/>
+    <sheet name="Output_KPA_Runup" r:id="rId44" sheetId="335"/>
+    <sheet name="Output_BAR_Runup" r:id="rId45" sheetId="336"/>
+    <sheet name="Output_PSI_Runup" r:id="rId46" sheetId="337"/>
+    <sheet name="Output_Runup_Lnspeed_ftmin" r:id="rId47" sheetId="338"/>
+    <sheet name="Output_Runup_Lnspeed_mmin" r:id="rId31" sheetId="339"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="106">
   <si>
     <t>Min_Pressure_KPA_UI</t>
   </si>
@@ -1497,517 +1497,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet283.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet284.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet285.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet286.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet287.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet288.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet289.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet290.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet291.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet298.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet299.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2041,7 +1530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet300.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet323.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2070,7 +1559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet301.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet324.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2099,7 +1588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet302.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet325.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2117,10 +1606,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +1617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet303.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet326.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2146,10 +1635,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +1646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet304.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet327.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2175,7 +1664,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -2186,7 +1675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet305.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet328.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2204,10 +1693,521 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet329.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet330.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet331.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet332.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet333.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet334.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet335.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet336.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet337.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet338.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet339.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
